--- a/packages/keystone/file/mock-files/check.xlsx
+++ b/packages/keystone/file/mock-files/check.xlsx
@@ -16,19 +16,19 @@
     <t>TEST1</t>
   </si>
   <si>
-    <t>ул. Театральная, д.1, оф.1</t>
+    <t>Some street, 1, 1</t>
   </si>
   <si>
-    <t>Отопление</t>
+    <t>Heating</t>
   </si>
   <si>
-    <t>Газ</t>
+    <t>Gas</t>
   </si>
   <si>
     <t>TEST2</t>
   </si>
   <si>
-    <t>e7cff5f3-bbf1-46d1-8a99-f15f365060cd, кв.1</t>
+    <t>e7cff5f3-bbf1-46d1-8a99-f15f365060cd, 1</t>
   </si>
 </sst>
 </file>
@@ -215,10 +215,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -440,12 +440,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -477,10 +477,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -719,12 +719,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1028,10 +1028,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
